--- a/storage/users.xlsx
+++ b/storage/users.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="178">
   <si>
     <t>Lawani Ashanaegbe J</t>
   </si>
@@ -500,12 +495,6 @@
     <t>just4chimex@gmail.com</t>
   </si>
   <si>
-    <t>Name: Emeka Ugwuegbu </t>
-  </si>
-  <si>
-    <t>Email: it@terratiga.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abali Adaobi Philomena.  </t>
   </si>
   <si>
@@ -537,13 +526,40 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>Emeka Ugwuegbu </t>
+  </si>
+  <si>
+    <t>it@terratiga.com</t>
+  </si>
+  <si>
+    <t>kiibatibankole</t>
+  </si>
+  <si>
+    <t>kiibatibankole@gmail.com</t>
+  </si>
+  <si>
+    <t>info_kbt@yahoo.com</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>maxpaynemonye@gmail.com</t>
+  </si>
+  <si>
+    <t>Ay</t>
+  </si>
+  <si>
+    <t>ayo4real2009@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,6 +623,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -668,7 +691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,7 +726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,36 +903,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -917,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -925,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -933,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -941,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -949,7 +972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -957,7 +980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -965,7 +988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -973,7 +996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -981,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -989,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -997,7 +1020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +1028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="17.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1013,15 +1036,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.25">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1037,7 +1060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.25">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1045,7 +1068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17.25">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1053,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1061,7 +1084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17.25">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1069,7 +1092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1077,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17.25">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1085,7 +1108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="17.25">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -1093,12 +1116,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="17.25">
       <c r="A25" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25">
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
@@ -1106,7 +1129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="17.25">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1114,7 +1137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="17.25">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -1122,7 +1145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="17.25">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -1130,7 +1153,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="17.25">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -1138,7 +1161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="17.25">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -1146,7 +1169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="17.25">
       <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
@@ -1154,7 +1177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="17.25">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1162,7 +1185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="17.25">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -1170,7 +1193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
@@ -1178,7 +1201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -1186,7 +1209,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="17.25">
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
@@ -1194,7 +1217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -1202,7 +1225,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
@@ -1210,7 +1233,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -1218,7 +1241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="17.25">
       <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
@@ -1226,7 +1249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
@@ -1234,7 +1257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="17.25">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -1242,15 +1265,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="17.25">
       <c r="A44" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -1258,7 +1281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="2" t="s">
         <v>83</v>
       </c>
@@ -1266,7 +1289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="2" t="s">
         <v>85</v>
       </c>
@@ -1274,7 +1297,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
@@ -1282,7 +1305,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="17.25">
       <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
@@ -1290,7 +1313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="17.25">
       <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
@@ -1298,7 +1321,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="17.25">
       <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
@@ -1306,7 +1329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="17.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -1314,7 +1337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="17.25">
       <c r="A53" s="2" t="s">
         <v>97</v>
       </c>
@@ -1322,7 +1345,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="17.25">
       <c r="A54" s="2" t="s">
         <v>99</v>
       </c>
@@ -1330,7 +1353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="17.25">
       <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
@@ -1338,7 +1361,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="17.25">
       <c r="A56" s="2" t="s">
         <v>103</v>
       </c>
@@ -1346,7 +1369,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="17.25">
       <c r="A57" s="2" t="s">
         <v>105</v>
       </c>
@@ -1354,7 +1377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="17.25">
       <c r="A58" s="2" t="s">
         <v>107</v>
       </c>
@@ -1362,7 +1385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="17.25">
       <c r="A59" s="2" t="s">
         <v>109</v>
       </c>
@@ -1370,7 +1393,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="17.25">
       <c r="A60" s="2" t="s">
         <v>111</v>
       </c>
@@ -1378,7 +1401,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="17.25">
       <c r="A61" s="2" t="s">
         <v>113</v>
       </c>
@@ -1386,7 +1409,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="17.25">
       <c r="A62" s="2" t="s">
         <v>115</v>
       </c>
@@ -1394,15 +1417,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="17.25">
       <c r="A63" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17.25">
       <c r="A64" s="2" t="s">
         <v>117</v>
       </c>
@@ -1410,7 +1433,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="17.25">
       <c r="A65" s="2" t="s">
         <v>119</v>
       </c>
@@ -1418,7 +1441,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
@@ -1426,7 +1449,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="17.25" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>123</v>
       </c>
@@ -1434,7 +1457,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="17.25">
       <c r="A68" s="2" t="s">
         <v>125</v>
       </c>
@@ -1442,7 +1465,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="17.25">
       <c r="A69" s="2" t="s">
         <v>127</v>
       </c>
@@ -1450,7 +1473,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="17.25">
       <c r="A70" s="2" t="s">
         <v>129</v>
       </c>
@@ -1458,7 +1481,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="17.25">
       <c r="A71" s="2" t="s">
         <v>131</v>
       </c>
@@ -1466,7 +1489,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="17.25">
       <c r="A72" s="2" t="s">
         <v>133</v>
       </c>
@@ -1474,7 +1497,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="17.25">
       <c r="A73" s="2" t="s">
         <v>135</v>
       </c>
@@ -1482,7 +1505,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="17.25">
       <c r="A74" s="2" t="s">
         <v>137</v>
       </c>
@@ -1490,7 +1513,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="17.25">
       <c r="A75" s="2" t="s">
         <v>139</v>
       </c>
@@ -1498,7 +1521,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="17.25">
       <c r="A76" s="2" t="s">
         <v>141</v>
       </c>
@@ -1506,7 +1529,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="17.25">
       <c r="A77" s="2" t="s">
         <v>143</v>
       </c>
@@ -1514,23 +1537,23 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="17.25">
       <c r="A78" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17.25">
       <c r="A79" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17.25">
       <c r="A80" s="2" t="s">
         <v>146</v>
       </c>
@@ -1538,7 +1561,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="17.25">
       <c r="A81" s="2" t="s">
         <v>148</v>
       </c>
@@ -1546,7 +1569,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="17.25">
       <c r="A82" s="2" t="s">
         <v>150</v>
       </c>
@@ -1554,7 +1577,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="17.25">
       <c r="A83" s="2" t="s">
         <v>152</v>
       </c>
@@ -1562,7 +1585,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="17.25">
       <c r="A84" s="2" t="s">
         <v>154</v>
       </c>
@@ -1570,7 +1593,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="17.25">
       <c r="A85" s="2" t="s">
         <v>156</v>
       </c>
@@ -1578,22 +1601,56 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="17.25">
       <c r="A86" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+        <v>169</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17.25">
+      <c r="A87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75">
+      <c r="A88" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17.25">
+      <c r="A89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17.25">
+      <c r="A90" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B86" r:id="rId2"/>
+    <hyperlink ref="B87" r:id="rId3"/>
+    <hyperlink ref="B88" r:id="rId4"/>
+    <hyperlink ref="B89" r:id="rId5"/>
+    <hyperlink ref="B90" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>